--- a/Assets/Docs/project.xlsx
+++ b/Assets/Docs/project.xlsx
@@ -136,6 +136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -178,7 +179,7 @@
         <v>18671.81</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D12" si="1">C2 * A2</f>
+        <f t="shared" ref="D2:D18" si="1">C2 * A2</f>
         <v>18671.81</v>
       </c>
       <c r="E2">
@@ -401,12 +402,12 @@
         <v>1144.25</v>
       </c>
       <c r="D13">
-        <f>C14 * A13</f>
-        <v>861.35</v>
+        <f t="shared" si="1"/>
+        <v>1144.25</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>83468.87</v>
+        <v>83751.77</v>
       </c>
     </row>
     <row r="14">
@@ -421,12 +422,12 @@
         <v>861.35</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D18" si="3">C14 * A14</f>
+        <f t="shared" si="1"/>
         <v>861.35</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="2"/>
-        <v>84330.22</v>
+        <v>84613.12</v>
       </c>
     </row>
     <row r="15">
@@ -441,12 +442,12 @@
         <v>1696.25</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1696.25</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="2"/>
-        <v>86026.47</v>
+        <v>86309.37</v>
       </c>
     </row>
     <row r="16">
@@ -461,12 +462,12 @@
         <v>891.4</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4457</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="2"/>
-        <v>90483.47</v>
+        <v>90766.37</v>
       </c>
     </row>
     <row r="17">
@@ -481,12 +482,12 @@
         <v>891.4</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>891.4</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="2"/>
-        <v>91374.87</v>
+        <v>91657.77</v>
       </c>
     </row>
     <row r="18">
@@ -501,12 +502,12 @@
         <v>172.33</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>172.33</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
-        <v>91547.2</v>
+        <v>91830.1</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +516,7 @@
       </c>
       <c r="E19" s="6">
         <f>E21 - E20</f>
-        <v>77815.12</v>
+        <v>78055.585</v>
       </c>
     </row>
     <row r="20">
@@ -524,7 +525,7 @@
       </c>
       <c r="E20" s="6">
         <f>E21 * 0.15</f>
-        <v>13732.08</v>
+        <v>13774.515</v>
       </c>
     </row>
     <row r="21">
@@ -533,13 +534,16 @@
       </c>
       <c r="E21" s="6">
         <f>E18</f>
-        <v>91547.2</v>
+        <v>91830.1</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>